--- a/practica1/doc/pruebas.xlsx
+++ b/practica1/doc/pruebas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\espnosa\iteso\distribuidos\practica1\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="600" yWindow="90" windowWidth="10515" windowHeight="4425"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -157,11 +162,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Cálculo" xfId="1" builtinId="22"/>
-    <cellStyle name="Énfasis2" xfId="3" builtinId="33"/>
-    <cellStyle name="Énfasis5" xfId="4" builtinId="45"/>
+    <cellStyle name="Accent2" xfId="3" builtinId="33"/>
+    <cellStyle name="Accent5" xfId="4" builtinId="45"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Explanatory Text" xfId="2" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Texto explicativo" xfId="2" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -169,12 +174,974 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Resultados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.4333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6233333333333335</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9776666666666667</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$I$3:$I$5</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.4333333333333336</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5066666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61333333333333329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="314227656"/>
+        <c:axId val="314228048"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="314227656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314228048"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="314228048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314227656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -216,7 +1183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -251,7 +1218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -460,144 +1427,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J8"/>
+  <dimension ref="A2:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="6" customWidth="1"/>
-    <col min="4" max="4" width="5.7109375" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="5" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="B3" s="7">
         <v>7.76</v>
       </c>
-      <c r="D3" s="6">
+      <c r="C3" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>7.54</v>
       </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F4" si="0">AVERAGE(C3:E3)</f>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E4" si="0">AVERAGE(B3:D3)</f>
         <v>7.4333333333333336</v>
       </c>
-      <c r="G3" s="7">
+      <c r="F3" s="7">
         <v>7.76</v>
       </c>
-      <c r="H3" s="6">
+      <c r="G3" s="6">
         <v>7</v>
       </c>
-      <c r="I3" s="5">
+      <c r="H3" s="5">
         <v>7.54</v>
       </c>
-      <c r="J3" s="4">
-        <f t="shared" ref="J3:J4" si="1">AVERAGE(G3:I3)</f>
+      <c r="I3" s="4">
+        <f t="shared" ref="I3:I4" si="1">AVERAGE(F3:H3)</f>
         <v>7.4333333333333336</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5">
+        <v>2.71</v>
+      </c>
       <c r="C4" s="5">
-        <v>1.97</v>
+        <v>2.54</v>
       </c>
       <c r="D4" s="5">
-        <v>1.97</v>
-      </c>
-      <c r="E4" s="5">
+        <v>2.62</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.6233333333333335</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.55</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.51</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.46</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5066666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
         <v>1.99</v>
       </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>1.9766666666666666</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1.07</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1.06</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1.06</v>
-      </c>
-      <c r="J4" s="4">
-        <f t="shared" si="1"/>
-        <v>1.0633333333333332</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
       <c r="C5" s="5">
-        <v>1.99</v>
+        <v>1.9830000000000001</v>
       </c>
       <c r="D5" s="5">
-        <v>1.9830000000000001</v>
-      </c>
-      <c r="E5" s="5">
         <v>1.96</v>
       </c>
-      <c r="F5" s="4">
-        <f>AVERAGE(C5:E5)</f>
+      <c r="E5" s="4">
+        <f>AVERAGE(B5:D5)</f>
         <v>1.9776666666666667</v>
       </c>
+      <c r="F5" s="6">
+        <v>0.6</v>
+      </c>
       <c r="G5" s="6">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="H5" s="6">
         <v>0.62</v>
       </c>
-      <c r="I5" s="6">
-        <v>0.62</v>
-      </c>
-      <c r="J5" s="4">
-        <f>AVERAGE(G5:I5)</f>
+      <c r="I5" s="4">
+        <f>AVERAGE(F5:H5)</f>
         <v>0.61333333333333329</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F6" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="8"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -607,7 +1576,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -619,7 +1588,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
